--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -3674,106 +3674,106 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8146,364 +8146,364 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="G154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8545,11 +8545,11 @@
         </is>
       </c>
       <c r="I156" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K156" s="2" t="b">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8597,11 +8597,11 @@
         </is>
       </c>
       <c r="I157" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
@@ -12069,81 +12069,81 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15894,262 +15894,262 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" t="n">
         <v>19</v>
       </c>
-      <c r="B298" s="2" t="inlineStr">
+      <c r="B298" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C298" s="2" t="inlineStr">
+      <c r="C298" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D298" s="2" t="n">
+      <c r="D298" t="n">
         <v>3</v>
       </c>
-      <c r="E298" s="2" t="inlineStr">
+      <c r="E298" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F298" s="2" t="inlineStr">
+      <c r="F298" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G298" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L298" s="2" t="inlineStr">
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I298" t="b">
+        <v>1</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K298" t="b">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
+      <c r="A299" t="n">
         <v>19</v>
       </c>
-      <c r="B299" s="2" t="inlineStr">
+      <c r="B299" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C299" s="2" t="inlineStr">
+      <c r="C299" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D299" s="2" t="n">
+      <c r="D299" t="n">
         <v>4</v>
       </c>
-      <c r="E299" s="2" t="inlineStr">
+      <c r="E299" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F299" s="2" t="inlineStr">
+      <c r="F299" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G299" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I299" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K299" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L299" s="2" t="inlineStr">
+      <c r="G299" t="b">
+        <v>1</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I299" t="b">
+        <v>1</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K299" t="b">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
+      <c r="A300" t="n">
         <v>19</v>
       </c>
-      <c r="B300" s="2" t="inlineStr">
+      <c r="B300" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C300" s="2" t="inlineStr">
+      <c r="C300" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D300" s="2" t="n">
+      <c r="D300" t="n">
         <v>5</v>
       </c>
-      <c r="E300" s="2" t="inlineStr">
+      <c r="E300" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F300" s="2" t="inlineStr">
+      <c r="F300" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G300" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I300" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K300" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L300" s="2" t="inlineStr">
+      <c r="G300" t="b">
+        <v>1</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I300" t="b">
+        <v>1</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K300" t="b">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
+      <c r="A301" t="n">
         <v>19</v>
       </c>
-      <c r="B301" s="2" t="inlineStr">
+      <c r="B301" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C301" s="2" t="inlineStr">
+      <c r="C301" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D301" s="2" t="n">
+      <c r="D301" t="n">
         <v>6</v>
       </c>
-      <c r="E301" s="2" t="inlineStr">
+      <c r="E301" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F301" s="2" t="inlineStr">
+      <c r="F301" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G301" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I301" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K301" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L301" s="2" t="inlineStr">
+      <c r="G301" t="b">
+        <v>1</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I301" t="b">
+        <v>1</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K301" t="b">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
+      <c r="A302" t="n">
         <v>19</v>
       </c>
-      <c r="B302" s="2" t="inlineStr">
+      <c r="B302" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C302" s="2" t="inlineStr">
+      <c r="C302" t="inlineStr">
         <is>
           <t>stably</t>
         </is>
       </c>
-      <c r="D302" s="2" t="n">
+      <c r="D302" t="n">
         <v>7</v>
       </c>
-      <c r="E302" s="2" t="inlineStr">
+      <c r="E302" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F302" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G302" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H302" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I302" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K302" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L302" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G302" t="b">
+        <v>1</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I302" t="b">
+        <v>1</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K302" t="b">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -3674,106 +3674,106 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8146,364 +8146,364 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>10</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" s="2" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>10</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" s="2" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>10</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>2</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" s="2" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>10</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>3</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" s="2" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>10</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>4</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" s="2" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" t="n">
         <v>10</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" t="n">
         <v>5</v>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" s="2" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="inlineStr">
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" t="n">
         <v>10</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" t="n">
         <v>6</v>
       </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8545,11 +8545,11 @@
         </is>
       </c>
       <c r="I156" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K156" s="2" t="b">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8597,11 +8597,11 @@
         </is>
       </c>
       <c r="I157" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G224" t="b">
@@ -12093,57 +12093,57 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15894,262 +15894,262 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
+      <c r="A298" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B298" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="C298" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D298" t="n">
+      <c r="D298" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="E298" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
+      <c r="F298" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G298" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I298" t="b">
-        <v>1</v>
-      </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K298" t="b">
-        <v>1</v>
-      </c>
-      <c r="L298" t="inlineStr">
+      <c r="G298" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J298" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L298" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
+      <c r="A299" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B299" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
+      <c r="C299" s="2" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D299" t="n">
+      <c r="D299" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E299" t="inlineStr">
+      <c r="E299" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
+      <c r="F299" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I299" t="b">
-        <v>1</v>
-      </c>
-      <c r="J299" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K299" t="b">
-        <v>1</v>
-      </c>
-      <c r="L299" t="inlineStr">
+      <c r="G299" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H299" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I299" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J299" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K299" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L299" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
+      <c r="A300" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B300" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
+      <c r="C300" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D300" t="n">
+      <c r="D300" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E300" t="inlineStr">
+      <c r="E300" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr">
+      <c r="F300" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I300" t="b">
-        <v>1</v>
-      </c>
-      <c r="J300" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K300" t="b">
-        <v>1</v>
-      </c>
-      <c r="L300" t="inlineStr">
+      <c r="G300" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H300" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I300" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J300" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K300" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L300" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
+      <c r="A301" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B301" t="inlineStr">
+      <c r="B301" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
+      <c r="C301" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D301" t="n">
+      <c r="D301" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E301" t="inlineStr">
+      <c r="E301" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
+      <c r="F301" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G301" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I301" t="b">
-        <v>1</v>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K301" t="b">
-        <v>1</v>
-      </c>
-      <c r="L301" t="inlineStr">
+      <c r="G301" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H301" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I301" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J301" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K301" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L301" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
+      <c r="A302" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B302" t="inlineStr">
+      <c r="B302" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
+      <c r="C302" s="2" t="inlineStr">
         <is>
           <t>stably</t>
         </is>
       </c>
-      <c r="D302" t="n">
+      <c r="D302" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E302" t="inlineStr">
+      <c r="E302" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G302" t="b">
-        <v>1</v>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I302" t="b">
-        <v>1</v>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K302" t="b">
-        <v>1</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F302" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G302" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H302" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I302" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J302" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K302" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L302" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
